--- a/output/resultados_pobrezaExtr.xlsx
+++ b/output/resultados_pobrezaExtr.xlsx
@@ -448,7 +448,7 @@
         <v>43480.83825372982</v>
       </c>
       <c r="K2">
-        <v>55177183.74398313</v>
+        <v>55177183.74398314</v>
       </c>
     </row>
     <row r="3">
@@ -970,7 +970,7 @@
         <v>0.176</v>
       </c>
       <c r="J4">
-        <v>65823.89828303661</v>
+        <v>65823.89828303662</v>
       </c>
       <c r="K4">
         <v>40020930.15608626</v>
@@ -1358,7 +1358,7 @@
         <v>45014.94250963611</v>
       </c>
       <c r="K2">
-        <v>88679436.74398313</v>
+        <v>88679436.74398314</v>
       </c>
     </row>
     <row r="3">
@@ -1530,7 +1530,7 @@
         <v>0.115</v>
       </c>
       <c r="J7">
-        <v>81931.77969595593</v>
+        <v>81931.77969595594</v>
       </c>
       <c r="K7">
         <v>136334481.4140707</v>
@@ -1681,7 +1681,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>20.04484304932735</v>
+        <v>20.04484304932736</v>
       </c>
       <c r="C12">
         <v>4.698849275823651</v>

--- a/output/resultados_pobrezaExtr.xlsx
+++ b/output/resultados_pobrezaExtr.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="tablaMuestreo_pobrezaExtr_Urb" sheetId="1" r:id="rId1"/>
-    <sheet name="tablaMuestreo_pobrezaExtr_Rur" sheetId="2" r:id="rId2"/>
-    <sheet name="tablaMuestreo_pobrezaExtr_Nac" sheetId="3" r:id="rId3"/>
+    <sheet name="Urbana" sheetId="1" r:id="rId1"/>
+    <sheet name="Rural" sheetId="2" r:id="rId2"/>
+    <sheet name="Nacional" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -421,34 +421,34 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="D2">
-        <v>1269</v>
+        <v>797</v>
       </c>
       <c r="E2">
-        <v>6347</v>
+        <v>3985</v>
       </c>
       <c r="F2">
-        <v>8839</v>
+        <v>12654</v>
       </c>
       <c r="G2">
         <v>0.09</v>
       </c>
       <c r="H2">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="I2">
         <v>0.176</v>
       </c>
       <c r="J2">
-        <v>43480.83825372982</v>
+        <v>46784.83825372982</v>
       </c>
       <c r="K2">
-        <v>55177183.74398314</v>
+        <v>37287516.08822267</v>
       </c>
     </row>
     <row r="3">
@@ -456,34 +456,34 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>3.46</v>
+        <v>3.65</v>
       </c>
       <c r="D3">
-        <v>1222</v>
+        <v>761</v>
       </c>
       <c r="E3">
-        <v>7332</v>
+        <v>4566</v>
       </c>
       <c r="F3">
-        <v>10210</v>
+        <v>14499</v>
       </c>
       <c r="G3">
         <v>0.09</v>
       </c>
       <c r="H3">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="I3">
         <v>0.176</v>
       </c>
       <c r="J3">
-        <v>50559.92502821844</v>
+        <v>53786.92502821844</v>
       </c>
       <c r="K3">
-        <v>61784228.38448293</v>
+        <v>40931849.94647423</v>
       </c>
     </row>
     <row r="4">
@@ -491,34 +491,34 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>3.92</v>
+        <v>4.11</v>
       </c>
       <c r="D4">
-        <v>1188</v>
+        <v>735</v>
       </c>
       <c r="E4">
-        <v>8315</v>
+        <v>5146</v>
       </c>
       <c r="F4">
-        <v>11579</v>
+        <v>16341</v>
       </c>
       <c r="G4">
         <v>0.09</v>
       </c>
       <c r="H4">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="I4">
         <v>0.176</v>
       </c>
       <c r="J4">
-        <v>57548.01180270704</v>
+        <v>60719.01180270704</v>
       </c>
       <c r="K4">
-        <v>68367038.02161597</v>
+        <v>44628473.67498968</v>
       </c>
     </row>
     <row r="5">
@@ -526,34 +526,34 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>4.38</v>
+        <v>4.58</v>
       </c>
       <c r="D5">
-        <v>1162</v>
+        <v>716</v>
       </c>
       <c r="E5">
-        <v>9297</v>
+        <v>5726</v>
       </c>
       <c r="F5">
-        <v>12947</v>
+        <v>18182</v>
       </c>
       <c r="G5">
         <v>0.09</v>
       </c>
       <c r="H5">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="I5">
         <v>0.176</v>
       </c>
       <c r="J5">
-        <v>64480.09857719565</v>
+        <v>67602.09857719565</v>
       </c>
       <c r="K5">
-        <v>74925874.54670134</v>
+        <v>48403102.58127208</v>
       </c>
     </row>
     <row r="6">
@@ -561,34 +561,34 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>4.85</v>
+        <v>5.04</v>
       </c>
       <c r="D6">
-        <v>1142</v>
+        <v>701</v>
       </c>
       <c r="E6">
-        <v>10279</v>
+        <v>6305</v>
       </c>
       <c r="F6">
-        <v>14314</v>
+        <v>20021</v>
       </c>
       <c r="G6">
         <v>0.09</v>
       </c>
       <c r="H6">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="I6">
         <v>0.176</v>
       </c>
       <c r="J6">
-        <v>71370.18535168427</v>
+        <v>74457.18535168427</v>
       </c>
       <c r="K6">
-        <v>81504751.67162344</v>
+        <v>52194486.93153067</v>
       </c>
     </row>
     <row r="7">
@@ -596,34 +596,34 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>5.31</v>
+        <v>5.51</v>
       </c>
       <c r="D7">
-        <v>1126</v>
+        <v>688</v>
       </c>
       <c r="E7">
-        <v>11260</v>
+        <v>6883</v>
       </c>
       <c r="F7">
-        <v>15680</v>
+        <v>21858</v>
       </c>
       <c r="G7">
         <v>0.09</v>
       </c>
       <c r="H7">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="I7">
         <v>0.176</v>
       </c>
       <c r="J7">
-        <v>78232.27212617287</v>
+        <v>81298.27212617287</v>
       </c>
       <c r="K7">
-        <v>88089538.41407065</v>
+        <v>55933211.22280694</v>
       </c>
     </row>
     <row r="8">
@@ -631,34 +631,34 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>5.78</v>
+        <v>5.97</v>
       </c>
       <c r="D8">
-        <v>1113</v>
+        <v>678</v>
       </c>
       <c r="E8">
-        <v>12240</v>
+        <v>7461</v>
       </c>
       <c r="F8">
-        <v>17045</v>
+        <v>23693</v>
       </c>
       <c r="G8">
         <v>0.09</v>
       </c>
       <c r="H8">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="I8">
         <v>0.176</v>
       </c>
       <c r="J8">
-        <v>85073.35890066148</v>
+        <v>88118.35890066148</v>
       </c>
       <c r="K8">
-        <v>94686648.45643623</v>
+        <v>59744247.33464848</v>
       </c>
     </row>
     <row r="9">
@@ -666,34 +666,34 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>6.24</v>
+        <v>6.44</v>
       </c>
       <c r="D9">
-        <v>1102</v>
+        <v>670</v>
       </c>
       <c r="E9">
-        <v>13220</v>
+        <v>8039</v>
       </c>
       <c r="F9">
-        <v>18409</v>
+        <v>25526</v>
       </c>
       <c r="G9">
         <v>0.09</v>
       </c>
       <c r="H9">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="I9">
         <v>0.176</v>
       </c>
       <c r="J9">
-        <v>91900.4456751501</v>
+        <v>94924.4456751501</v>
       </c>
       <c r="K9">
-        <v>101274291.1340154</v>
+        <v>63599378.60235056</v>
       </c>
     </row>
     <row r="10">
@@ -701,34 +701,34 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>6.71</v>
+        <v>6.9</v>
       </c>
       <c r="D10">
-        <v>1092</v>
+        <v>663</v>
       </c>
       <c r="E10">
-        <v>14198</v>
+        <v>8615</v>
       </c>
       <c r="F10">
-        <v>19772</v>
+        <v>27358</v>
       </c>
       <c r="G10">
         <v>0.09</v>
       </c>
       <c r="H10">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="I10">
         <v>0.176</v>
       </c>
       <c r="J10">
-        <v>98720.5324496387</v>
+        <v>101723.5324496387</v>
       </c>
       <c r="K10">
-        <v>107802821.4350055</v>
+        <v>67442702.01411046</v>
       </c>
     </row>
     <row r="11">
@@ -736,34 +736,34 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>7.17</v>
+        <v>7.37</v>
       </c>
       <c r="D11">
-        <v>1084</v>
+        <v>657</v>
       </c>
       <c r="E11">
-        <v>15177</v>
+        <v>9191</v>
       </c>
       <c r="F11">
-        <v>21134</v>
+        <v>29187</v>
       </c>
       <c r="G11">
         <v>0.09</v>
       </c>
       <c r="H11">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="I11">
         <v>0.176</v>
       </c>
       <c r="J11">
-        <v>105526.6192241273</v>
+        <v>108515.6192241273</v>
       </c>
       <c r="K11">
-        <v>114390855.238954</v>
+        <v>71294761.83025165</v>
       </c>
     </row>
     <row r="12">
@@ -771,34 +771,34 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C12">
-        <v>7.64</v>
+        <v>7.84</v>
       </c>
       <c r="D12">
-        <v>1077</v>
+        <v>651</v>
       </c>
       <c r="E12">
-        <v>16154</v>
+        <v>9767</v>
       </c>
       <c r="F12">
-        <v>22495</v>
+        <v>31015</v>
       </c>
       <c r="G12">
         <v>0.09</v>
       </c>
       <c r="H12">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="I12">
         <v>0.176</v>
       </c>
       <c r="J12">
-        <v>112325.7059986159</v>
+        <v>115307.7059986159</v>
       </c>
       <c r="K12">
-        <v>120974785.3605094</v>
+        <v>75065316.60509896</v>
       </c>
     </row>
   </sheetData>
@@ -876,34 +876,34 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>1.82</v>
+        <v>3.48</v>
       </c>
       <c r="D2">
-        <v>701</v>
+        <v>649</v>
       </c>
       <c r="E2">
-        <v>3506</v>
+        <v>3246</v>
       </c>
       <c r="F2">
-        <v>4249</v>
+        <v>10225</v>
       </c>
       <c r="G2">
         <v>0.09</v>
       </c>
       <c r="H2">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="I2">
         <v>0.176</v>
       </c>
       <c r="J2">
-        <v>47792.08671086701</v>
+        <v>50184.08671086701</v>
       </c>
       <c r="K2">
-        <v>33502252.78431777</v>
+        <v>32569472.27535269</v>
       </c>
     </row>
     <row r="3">
@@ -911,34 +911,34 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>2.01</v>
+        <v>4.01</v>
       </c>
       <c r="D3">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="E3">
-        <v>3882</v>
+        <v>3735</v>
       </c>
       <c r="F3">
-        <v>4705</v>
+        <v>11767</v>
       </c>
       <c r="G3">
         <v>0.09</v>
       </c>
       <c r="H3">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="I3">
         <v>0.176</v>
       </c>
       <c r="J3">
-        <v>57152.9924969518</v>
+        <v>58256.9924969518</v>
       </c>
       <c r="K3">
-        <v>36977986.14552782</v>
+        <v>36294106.32560097</v>
       </c>
     </row>
     <row r="4">
@@ -946,34 +946,34 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>2.21</v>
+        <v>4.53</v>
       </c>
       <c r="D4">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E4">
-        <v>4258</v>
+        <v>4224</v>
       </c>
       <c r="F4">
-        <v>5161</v>
+        <v>13306</v>
       </c>
       <c r="G4">
         <v>0.09</v>
       </c>
       <c r="H4">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="I4">
         <v>0.176</v>
       </c>
       <c r="J4">
-        <v>65823.89828303662</v>
+        <v>66053.89828303661</v>
       </c>
       <c r="K4">
-        <v>40020930.15608626</v>
+        <v>39830500.66467108</v>
       </c>
     </row>
     <row r="5">
@@ -981,34 +981,34 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>2.4</v>
+        <v>5.06</v>
       </c>
       <c r="D5">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="E5">
-        <v>4634</v>
+        <v>4711</v>
       </c>
       <c r="F5">
-        <v>5616</v>
+        <v>14841</v>
       </c>
       <c r="G5">
         <v>0.09</v>
       </c>
       <c r="H5">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="I5">
         <v>0.176</v>
       </c>
       <c r="J5">
-        <v>74034.80406912143</v>
+        <v>73574.80406912143</v>
       </c>
       <c r="K5">
-        <v>42866151.5560213</v>
+        <v>43335559.59671252</v>
       </c>
     </row>
     <row r="6">
@@ -1016,34 +1016,34 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>2.6</v>
+        <v>5.59</v>
       </c>
       <c r="D6">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="E6">
-        <v>5009</v>
+        <v>5197</v>
       </c>
       <c r="F6">
-        <v>6071</v>
+        <v>16373</v>
       </c>
       <c r="G6">
         <v>0.09</v>
       </c>
       <c r="H6">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="I6">
         <v>0.176</v>
       </c>
       <c r="J6">
-        <v>81923.70985520622</v>
+        <v>81003.70985520622</v>
       </c>
       <c r="K6">
-        <v>45631506.38934986</v>
+        <v>46739140.58645399</v>
       </c>
     </row>
     <row r="7">
@@ -1051,34 +1051,34 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>2.79</v>
+        <v>6.12</v>
       </c>
       <c r="D7">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="E7">
-        <v>5384</v>
+        <v>5683</v>
       </c>
       <c r="F7">
-        <v>6526</v>
+        <v>17902</v>
       </c>
       <c r="G7">
         <v>0.09</v>
       </c>
       <c r="H7">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="I7">
         <v>0.176</v>
       </c>
       <c r="J7">
-        <v>89674.61564129102</v>
+        <v>88294.61564129102</v>
       </c>
       <c r="K7">
-        <v>48244943.21501457</v>
+        <v>50151341.6842533</v>
       </c>
     </row>
     <row r="8">
@@ -1086,34 +1086,34 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>2.99</v>
+        <v>6.65</v>
       </c>
       <c r="D8">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="E8">
-        <v>5759</v>
+        <v>6167</v>
       </c>
       <c r="F8">
-        <v>6980</v>
+        <v>19427</v>
       </c>
       <c r="G8">
         <v>0.09</v>
       </c>
       <c r="H8">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="I8">
         <v>0.176</v>
       </c>
       <c r="J8">
-        <v>97195.52142737585</v>
+        <v>95493.52142737585</v>
       </c>
       <c r="K8">
-        <v>50930453.22794494</v>
+        <v>53571865.52075785</v>
       </c>
     </row>
     <row r="9">
@@ -1121,34 +1121,34 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>3.19</v>
+        <v>7.18</v>
       </c>
       <c r="D9">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="E9">
-        <v>6134</v>
+        <v>6650</v>
       </c>
       <c r="F9">
-        <v>7434</v>
+        <v>20949</v>
       </c>
       <c r="G9">
         <v>0.09</v>
       </c>
       <c r="H9">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="I9">
         <v>0.176</v>
       </c>
       <c r="J9">
-        <v>104670.4272134606</v>
+        <v>102692.4272134606</v>
       </c>
       <c r="K9">
-        <v>53486588.30607839</v>
+        <v>56891604.67625719</v>
       </c>
     </row>
     <row r="10">
@@ -1156,34 +1156,34 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>3.38</v>
+        <v>7.71</v>
       </c>
       <c r="D10">
-        <v>501</v>
+        <v>549</v>
       </c>
       <c r="E10">
-        <v>6508</v>
+        <v>7132</v>
       </c>
       <c r="F10">
-        <v>7888</v>
+        <v>22467</v>
       </c>
       <c r="G10">
         <v>0.09</v>
       </c>
       <c r="H10">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="I10">
         <v>0.176</v>
       </c>
       <c r="J10">
-        <v>112007.3329995454</v>
+        <v>109799.3329995454</v>
       </c>
       <c r="K10">
-        <v>56115673.83277226</v>
+        <v>60279833.81675044</v>
       </c>
     </row>
     <row r="11">
@@ -1191,34 +1191,34 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>3.58</v>
+        <v>8.24</v>
       </c>
       <c r="D11">
-        <v>492</v>
+        <v>544</v>
       </c>
       <c r="E11">
-        <v>6883</v>
+        <v>7613</v>
       </c>
       <c r="F11">
-        <v>8342</v>
+        <v>23982</v>
       </c>
       <c r="G11">
         <v>0.09</v>
       </c>
       <c r="H11">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="I11">
         <v>0.176</v>
       </c>
       <c r="J11">
-        <v>119298.2387856302</v>
+        <v>116906.2387856302</v>
       </c>
       <c r="K11">
-        <v>58694733.48253008</v>
+        <v>63596993.89938285</v>
       </c>
     </row>
     <row r="12">
@@ -1226,34 +1226,34 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C12">
-        <v>3.77</v>
+        <v>8.76</v>
       </c>
       <c r="D12">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="E12">
-        <v>7257</v>
+        <v>8093</v>
       </c>
       <c r="F12">
-        <v>8795</v>
+        <v>25494</v>
       </c>
       <c r="G12">
         <v>0.09</v>
       </c>
       <c r="H12">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="I12">
         <v>0.176</v>
       </c>
       <c r="J12">
-        <v>126543.1445717151</v>
+        <v>123967.1445717151</v>
       </c>
       <c r="K12">
-        <v>61246881.97271009</v>
+        <v>66942258.06872614</v>
       </c>
     </row>
   </sheetData>
@@ -1331,34 +1331,34 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>6.643654822335026</v>
+        <v>15.8222683264177</v>
       </c>
       <c r="C2">
-        <v>2.148010012515645</v>
+        <v>3.365693430656934</v>
       </c>
       <c r="D2">
-        <v>1970</v>
+        <v>1446</v>
       </c>
       <c r="E2">
-        <v>9853</v>
+        <v>7231</v>
       </c>
       <c r="F2">
-        <v>13088</v>
+        <v>22879</v>
       </c>
       <c r="G2">
-        <v>0.061</v>
+        <v>0.066</v>
       </c>
       <c r="H2">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I2">
-        <v>0.119</v>
+        <v>0.129</v>
       </c>
       <c r="J2">
-        <v>45014.94250963611</v>
+        <v>48310.50351882619</v>
       </c>
       <c r="K2">
-        <v>88679436.74398314</v>
+        <v>69856988.08822267</v>
       </c>
     </row>
     <row r="3">
@@ -1366,34 +1366,34 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>7.980203317281969</v>
+        <v>18.97832369942197</v>
       </c>
       <c r="C3">
-        <v>2.402988370133154</v>
+        <v>3.872499735421738</v>
       </c>
       <c r="D3">
-        <v>1869</v>
+        <v>1384</v>
       </c>
       <c r="E3">
-        <v>11214</v>
+        <v>8301</v>
       </c>
       <c r="F3">
-        <v>14915</v>
+        <v>26266</v>
       </c>
       <c r="G3">
-        <v>0.06</v>
+        <v>0.066</v>
       </c>
       <c r="H3">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I3">
-        <v>0.118</v>
+        <v>0.129</v>
       </c>
       <c r="J3">
-        <v>52842.27628918294</v>
+        <v>55799.10111739467</v>
       </c>
       <c r="K3">
-        <v>98762214.38448292</v>
+        <v>77225955.94647422</v>
       </c>
     </row>
     <row r="4">
@@ -1401,34 +1401,34 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>9.320712694877505</v>
+        <v>22.15769805680119</v>
       </c>
       <c r="C4">
-        <v>2.663401319736053</v>
+        <v>4.369262179667699</v>
       </c>
       <c r="D4">
-        <v>1796</v>
+        <v>1338</v>
       </c>
       <c r="E4">
-        <v>12573</v>
+        <v>9370</v>
       </c>
       <c r="F4">
-        <v>16740</v>
+        <v>29647</v>
       </c>
       <c r="G4">
-        <v>0.06</v>
+        <v>0.066</v>
       </c>
       <c r="H4">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I4">
-        <v>0.117</v>
+        <v>0.129</v>
       </c>
       <c r="J4">
-        <v>60349.64811893985</v>
+        <v>63123.29945813877</v>
       </c>
       <c r="K4">
-        <v>108387968.021616</v>
+        <v>84458974.67498967</v>
       </c>
     </row>
     <row r="5">
@@ -1436,34 +1436,34 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>10.66226306720276</v>
+        <v>25.30498084291188</v>
       </c>
       <c r="C5">
-        <v>2.914077079107505</v>
+        <v>4.876030971216966</v>
       </c>
       <c r="D5">
-        <v>1741</v>
+        <v>1305</v>
       </c>
       <c r="E5">
-        <v>13931</v>
+        <v>10437</v>
       </c>
       <c r="F5">
-        <v>18563</v>
+        <v>33023</v>
       </c>
       <c r="G5">
-        <v>0.059</v>
+        <v>0.066</v>
       </c>
       <c r="H5">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I5">
-        <v>0.116</v>
+        <v>0.129</v>
       </c>
       <c r="J5">
-        <v>67657.6832548543</v>
+        <v>70297.82573277554</v>
       </c>
       <c r="K5">
-        <v>117792026.5467013</v>
+        <v>91738662.58127208</v>
       </c>
     </row>
     <row r="6">
@@ -1471,34 +1471,34 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>11.99823425544438</v>
+        <v>28.4773082942097</v>
       </c>
       <c r="C6">
-        <v>3.174762050967148</v>
+        <v>5.378694158075601</v>
       </c>
       <c r="D6">
-        <v>1699</v>
+        <v>1278</v>
       </c>
       <c r="E6">
-        <v>15288</v>
+        <v>11502</v>
       </c>
       <c r="F6">
-        <v>20385</v>
+        <v>36394</v>
       </c>
       <c r="G6">
-        <v>0.059</v>
+        <v>0.066</v>
       </c>
       <c r="H6">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I6">
-        <v>0.116</v>
+        <v>0.129</v>
       </c>
       <c r="J6">
-        <v>74830.05160189726</v>
+        <v>77412.85440651853</v>
       </c>
       <c r="K6">
-        <v>127136257.6716234</v>
+        <v>98933627.93153067</v>
       </c>
     </row>
     <row r="7">
@@ -1506,34 +1506,34 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>13.34495192307692</v>
+        <v>31.65605095541401</v>
       </c>
       <c r="C7">
-        <v>3.424155251141552</v>
+        <v>5.885437028762915</v>
       </c>
       <c r="D7">
-        <v>1664</v>
+        <v>1256</v>
       </c>
       <c r="E7">
-        <v>16644</v>
+        <v>12566</v>
       </c>
       <c r="F7">
-        <v>22206</v>
+        <v>39760</v>
       </c>
       <c r="G7">
-        <v>0.059</v>
+        <v>0.066</v>
       </c>
       <c r="H7">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I7">
-        <v>0.115</v>
+        <v>0.129</v>
       </c>
       <c r="J7">
-        <v>81931.77969595594</v>
+        <v>84462.2239035087</v>
       </c>
       <c r="K7">
-        <v>136334481.4140707</v>
+        <v>106084553.2228069</v>
       </c>
     </row>
     <row r="8">
@@ -1541,34 +1541,34 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>14.67623701893708</v>
+        <v>34.80225988700565</v>
       </c>
       <c r="C8">
-        <v>3.683946137048976</v>
+        <v>6.388057540065651</v>
       </c>
       <c r="D8">
-        <v>1637</v>
+        <v>1239</v>
       </c>
       <c r="E8">
-        <v>17999</v>
+        <v>13628</v>
       </c>
       <c r="F8">
-        <v>24025</v>
+        <v>43120</v>
       </c>
       <c r="G8">
-        <v>0.058</v>
+        <v>0.066</v>
       </c>
       <c r="H8">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I8">
-        <v>0.115</v>
+        <v>0.129</v>
       </c>
       <c r="J8">
-        <v>88953.63558731595</v>
+        <v>91457.71859132242</v>
       </c>
       <c r="K8">
-        <v>145617101.4564362</v>
+        <v>113316113.3346485</v>
       </c>
     </row>
     <row r="9">
@@ -1576,34 +1576,34 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>16.02169869807812</v>
+        <v>37.96977124183007</v>
       </c>
       <c r="C9">
-        <v>3.941893353941267</v>
+        <v>6.894787069068352</v>
       </c>
       <c r="D9">
-        <v>1613</v>
+        <v>1224</v>
       </c>
       <c r="E9">
-        <v>19354</v>
+        <v>14689</v>
       </c>
       <c r="F9">
-        <v>25843</v>
+        <v>46475</v>
       </c>
       <c r="G9">
-        <v>0.058</v>
+        <v>0.066</v>
       </c>
       <c r="H9">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I9">
-        <v>0.114</v>
+        <v>0.129</v>
       </c>
       <c r="J9">
-        <v>95945.98830379132</v>
+        <v>98440.34608035177</v>
       </c>
       <c r="K9">
-        <v>154760879.1340154</v>
+        <v>120490983.6023506</v>
       </c>
     </row>
     <row r="10">
@@ -1611,34 +1611,34 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>17.36346516007533</v>
+        <v>41.10973597359736</v>
       </c>
       <c r="C10">
-        <v>4.191821665239147</v>
+        <v>7.397380276989821</v>
       </c>
       <c r="D10">
-        <v>1593</v>
+        <v>1212</v>
       </c>
       <c r="E10">
-        <v>20706</v>
+        <v>15747</v>
       </c>
       <c r="F10">
-        <v>27660</v>
+        <v>49825</v>
       </c>
       <c r="G10">
-        <v>0.058</v>
+        <v>0.066</v>
       </c>
       <c r="H10">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I10">
-        <v>0.114</v>
+        <v>0.129</v>
       </c>
       <c r="J10">
-        <v>102899.2438386726</v>
+        <v>105381.6303746786</v>
       </c>
       <c r="K10">
-        <v>163918495.4350055</v>
+        <v>127722536.0141105</v>
       </c>
     </row>
     <row r="11">
@@ -1646,34 +1646,34 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>18.70304568527919</v>
+        <v>44.27060782681099</v>
       </c>
       <c r="C11">
-        <v>4.449383164926225</v>
+        <v>7.904102457309455</v>
       </c>
       <c r="D11">
-        <v>1576</v>
+        <v>1201</v>
       </c>
       <c r="E11">
-        <v>22060</v>
+        <v>16804</v>
       </c>
       <c r="F11">
-        <v>29476</v>
+        <v>53169</v>
       </c>
       <c r="G11">
-        <v>0.058</v>
+        <v>0.066</v>
       </c>
       <c r="H11">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I11">
-        <v>0.114</v>
+        <v>0.129</v>
       </c>
       <c r="J11">
-        <v>109825.8808622805</v>
+        <v>112316.1996921329</v>
       </c>
       <c r="K11">
-        <v>173085588.238954</v>
+        <v>134891755.8302516</v>
       </c>
     </row>
     <row r="12">
@@ -1681,34 +1681,34 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>20.04484304932736</v>
+        <v>47.44668345927792</v>
       </c>
       <c r="C12">
-        <v>4.698849275823651</v>
+        <v>8.404934403759544</v>
       </c>
       <c r="D12">
-        <v>1561</v>
+        <v>1191</v>
       </c>
       <c r="E12">
-        <v>23411</v>
+        <v>17860</v>
       </c>
       <c r="F12">
-        <v>31290</v>
+        <v>56509</v>
       </c>
       <c r="G12">
-        <v>0.058</v>
+        <v>0.066</v>
       </c>
       <c r="H12">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I12">
-        <v>0.113</v>
+        <v>0.129</v>
       </c>
       <c r="J12">
-        <v>116733.9316851437</v>
+        <v>119233.8997523921</v>
       </c>
       <c r="K12">
-        <v>182221667.3605093</v>
+        <v>142007574.605099</v>
       </c>
     </row>
   </sheetData>

--- a/output/resultados_pobrezaExtr.xlsx
+++ b/output/resultados_pobrezaExtr.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Urbana" sheetId="1" r:id="rId1"/>
     <sheet name="Rural" sheetId="2" r:id="rId2"/>
-    <sheet name="Nacional" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -353,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,25 +391,10 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cve</t>
+          <t>Costos_UPM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Costos_Total</t>
         </is>
@@ -436,18 +420,9 @@
         <v>12654</v>
       </c>
       <c r="G2">
-        <v>0.09</v>
+        <v>46784.83825372982</v>
       </c>
       <c r="H2">
-        <v>0.005</v>
-      </c>
-      <c r="I2">
-        <v>0.176</v>
-      </c>
-      <c r="J2">
-        <v>46784.83825372982</v>
-      </c>
-      <c r="K2">
         <v>37287516.08822267</v>
       </c>
     </row>
@@ -471,18 +446,9 @@
         <v>14499</v>
       </c>
       <c r="G3">
-        <v>0.09</v>
+        <v>53786.92502821844</v>
       </c>
       <c r="H3">
-        <v>0.005</v>
-      </c>
-      <c r="I3">
-        <v>0.176</v>
-      </c>
-      <c r="J3">
-        <v>53786.92502821844</v>
-      </c>
-      <c r="K3">
         <v>40931849.94647423</v>
       </c>
     </row>
@@ -506,18 +472,9 @@
         <v>16341</v>
       </c>
       <c r="G4">
-        <v>0.09</v>
+        <v>60719.01180270704</v>
       </c>
       <c r="H4">
-        <v>0.005</v>
-      </c>
-      <c r="I4">
-        <v>0.176</v>
-      </c>
-      <c r="J4">
-        <v>60719.01180270704</v>
-      </c>
-      <c r="K4">
         <v>44628473.67498968</v>
       </c>
     </row>
@@ -541,18 +498,9 @@
         <v>18182</v>
       </c>
       <c r="G5">
-        <v>0.09</v>
+        <v>67602.09857719565</v>
       </c>
       <c r="H5">
-        <v>0.005</v>
-      </c>
-      <c r="I5">
-        <v>0.176</v>
-      </c>
-      <c r="J5">
-        <v>67602.09857719565</v>
-      </c>
-      <c r="K5">
         <v>48403102.58127208</v>
       </c>
     </row>
@@ -576,18 +524,9 @@
         <v>20021</v>
       </c>
       <c r="G6">
-        <v>0.09</v>
+        <v>74457.18535168427</v>
       </c>
       <c r="H6">
-        <v>0.005</v>
-      </c>
-      <c r="I6">
-        <v>0.176</v>
-      </c>
-      <c r="J6">
-        <v>74457.18535168427</v>
-      </c>
-      <c r="K6">
         <v>52194486.93153067</v>
       </c>
     </row>
@@ -611,18 +550,9 @@
         <v>21858</v>
       </c>
       <c r="G7">
-        <v>0.09</v>
+        <v>81298.27212617287</v>
       </c>
       <c r="H7">
-        <v>0.005</v>
-      </c>
-      <c r="I7">
-        <v>0.176</v>
-      </c>
-      <c r="J7">
-        <v>81298.27212617287</v>
-      </c>
-      <c r="K7">
         <v>55933211.22280694</v>
       </c>
     </row>
@@ -646,18 +576,9 @@
         <v>23693</v>
       </c>
       <c r="G8">
-        <v>0.09</v>
+        <v>88118.35890066148</v>
       </c>
       <c r="H8">
-        <v>0.005</v>
-      </c>
-      <c r="I8">
-        <v>0.176</v>
-      </c>
-      <c r="J8">
-        <v>88118.35890066148</v>
-      </c>
-      <c r="K8">
         <v>59744247.33464848</v>
       </c>
     </row>
@@ -681,18 +602,9 @@
         <v>25526</v>
       </c>
       <c r="G9">
-        <v>0.09</v>
+        <v>94924.4456751501</v>
       </c>
       <c r="H9">
-        <v>0.005</v>
-      </c>
-      <c r="I9">
-        <v>0.176</v>
-      </c>
-      <c r="J9">
-        <v>94924.4456751501</v>
-      </c>
-      <c r="K9">
         <v>63599378.60235056</v>
       </c>
     </row>
@@ -716,18 +628,9 @@
         <v>27358</v>
       </c>
       <c r="G10">
-        <v>0.09</v>
+        <v>101723.5324496387</v>
       </c>
       <c r="H10">
-        <v>0.005</v>
-      </c>
-      <c r="I10">
-        <v>0.176</v>
-      </c>
-      <c r="J10">
-        <v>101723.5324496387</v>
-      </c>
-      <c r="K10">
         <v>67442702.01411046</v>
       </c>
     </row>
@@ -751,18 +654,9 @@
         <v>29187</v>
       </c>
       <c r="G11">
-        <v>0.09</v>
+        <v>108515.6192241273</v>
       </c>
       <c r="H11">
-        <v>0.005</v>
-      </c>
-      <c r="I11">
-        <v>0.176</v>
-      </c>
-      <c r="J11">
-        <v>108515.6192241273</v>
-      </c>
-      <c r="K11">
         <v>71294761.83025165</v>
       </c>
     </row>
@@ -786,18 +680,9 @@
         <v>31015</v>
       </c>
       <c r="G12">
-        <v>0.09</v>
+        <v>115307.7059986159</v>
       </c>
       <c r="H12">
-        <v>0.005</v>
-      </c>
-      <c r="I12">
-        <v>0.176</v>
-      </c>
-      <c r="J12">
-        <v>115307.7059986159</v>
-      </c>
-      <c r="K12">
         <v>75065316.60509896</v>
       </c>
     </row>
@@ -808,7 +693,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -847,25 +732,10 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cve</t>
+          <t>Costos_UPM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Costos_Total</t>
         </is>
@@ -891,18 +761,9 @@
         <v>10225</v>
       </c>
       <c r="G2">
-        <v>0.09</v>
+        <v>50184.08671086701</v>
       </c>
       <c r="H2">
-        <v>0.007</v>
-      </c>
-      <c r="I2">
-        <v>0.176</v>
-      </c>
-      <c r="J2">
-        <v>50184.08671086701</v>
-      </c>
-      <c r="K2">
         <v>32569472.27535269</v>
       </c>
     </row>
@@ -926,18 +787,9 @@
         <v>11767</v>
       </c>
       <c r="G3">
-        <v>0.09</v>
+        <v>58256.9924969518</v>
       </c>
       <c r="H3">
-        <v>0.007</v>
-      </c>
-      <c r="I3">
-        <v>0.176</v>
-      </c>
-      <c r="J3">
-        <v>58256.9924969518</v>
-      </c>
-      <c r="K3">
         <v>36294106.32560097</v>
       </c>
     </row>
@@ -961,18 +813,9 @@
         <v>13306</v>
       </c>
       <c r="G4">
-        <v>0.09</v>
+        <v>66053.89828303661</v>
       </c>
       <c r="H4">
-        <v>0.007</v>
-      </c>
-      <c r="I4">
-        <v>0.176</v>
-      </c>
-      <c r="J4">
-        <v>66053.89828303661</v>
-      </c>
-      <c r="K4">
         <v>39830500.66467108</v>
       </c>
     </row>
@@ -996,18 +839,9 @@
         <v>14841</v>
       </c>
       <c r="G5">
-        <v>0.09</v>
+        <v>73574.80406912143</v>
       </c>
       <c r="H5">
-        <v>0.007</v>
-      </c>
-      <c r="I5">
-        <v>0.176</v>
-      </c>
-      <c r="J5">
-        <v>73574.80406912143</v>
-      </c>
-      <c r="K5">
         <v>43335559.59671252</v>
       </c>
     </row>
@@ -1031,18 +865,9 @@
         <v>16373</v>
       </c>
       <c r="G6">
-        <v>0.09</v>
+        <v>81003.70985520622</v>
       </c>
       <c r="H6">
-        <v>0.007</v>
-      </c>
-      <c r="I6">
-        <v>0.176</v>
-      </c>
-      <c r="J6">
-        <v>81003.70985520622</v>
-      </c>
-      <c r="K6">
         <v>46739140.58645399</v>
       </c>
     </row>
@@ -1066,18 +891,9 @@
         <v>17902</v>
       </c>
       <c r="G7">
-        <v>0.09</v>
+        <v>88294.61564129102</v>
       </c>
       <c r="H7">
-        <v>0.007</v>
-      </c>
-      <c r="I7">
-        <v>0.176</v>
-      </c>
-      <c r="J7">
-        <v>88294.61564129102</v>
-      </c>
-      <c r="K7">
         <v>50151341.6842533</v>
       </c>
     </row>
@@ -1101,18 +917,9 @@
         <v>19427</v>
       </c>
       <c r="G8">
-        <v>0.09</v>
+        <v>95493.52142737585</v>
       </c>
       <c r="H8">
-        <v>0.007</v>
-      </c>
-      <c r="I8">
-        <v>0.176</v>
-      </c>
-      <c r="J8">
-        <v>95493.52142737585</v>
-      </c>
-      <c r="K8">
         <v>53571865.52075785</v>
       </c>
     </row>
@@ -1136,18 +943,9 @@
         <v>20949</v>
       </c>
       <c r="G9">
-        <v>0.09</v>
+        <v>102692.4272134606</v>
       </c>
       <c r="H9">
-        <v>0.007</v>
-      </c>
-      <c r="I9">
-        <v>0.176</v>
-      </c>
-      <c r="J9">
-        <v>102692.4272134606</v>
-      </c>
-      <c r="K9">
         <v>56891604.67625719</v>
       </c>
     </row>
@@ -1171,18 +969,9 @@
         <v>22467</v>
       </c>
       <c r="G10">
-        <v>0.09</v>
+        <v>109799.3329995454</v>
       </c>
       <c r="H10">
-        <v>0.007</v>
-      </c>
-      <c r="I10">
-        <v>0.176</v>
-      </c>
-      <c r="J10">
-        <v>109799.3329995454</v>
-      </c>
-      <c r="K10">
         <v>60279833.81675044</v>
       </c>
     </row>
@@ -1206,18 +995,9 @@
         <v>23982</v>
       </c>
       <c r="G11">
-        <v>0.09</v>
+        <v>116906.2387856302</v>
       </c>
       <c r="H11">
-        <v>0.007</v>
-      </c>
-      <c r="I11">
-        <v>0.176</v>
-      </c>
-      <c r="J11">
-        <v>116906.2387856302</v>
-      </c>
-      <c r="K11">
         <v>63596993.89938285</v>
       </c>
     </row>
@@ -1241,474 +1021,10 @@
         <v>25494</v>
       </c>
       <c r="G12">
-        <v>0.09</v>
+        <v>123967.1445717151</v>
       </c>
       <c r="H12">
-        <v>0.007</v>
-      </c>
-      <c r="I12">
-        <v>0.176</v>
-      </c>
-      <c r="J12">
-        <v>123967.1445717151</v>
-      </c>
-      <c r="K12">
         <v>66942258.06872614</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>HouseholdsPerPSU</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PersonsPerPSU</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>DEFF</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PSUinSample</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HouseholdsInSample</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PersonsInSample</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cve</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>15.8222683264177</v>
-      </c>
-      <c r="C2">
-        <v>3.365693430656934</v>
-      </c>
-      <c r="D2">
-        <v>1446</v>
-      </c>
-      <c r="E2">
-        <v>7231</v>
-      </c>
-      <c r="F2">
-        <v>22879</v>
-      </c>
-      <c r="G2">
-        <v>0.066</v>
-      </c>
-      <c r="H2">
-        <v>0.004</v>
-      </c>
-      <c r="I2">
-        <v>0.129</v>
-      </c>
-      <c r="J2">
-        <v>48310.50351882619</v>
-      </c>
-      <c r="K2">
-        <v>69856988.08822267</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>18.97832369942197</v>
-      </c>
-      <c r="C3">
-        <v>3.872499735421738</v>
-      </c>
-      <c r="D3">
-        <v>1384</v>
-      </c>
-      <c r="E3">
-        <v>8301</v>
-      </c>
-      <c r="F3">
-        <v>26266</v>
-      </c>
-      <c r="G3">
-        <v>0.066</v>
-      </c>
-      <c r="H3">
-        <v>0.004</v>
-      </c>
-      <c r="I3">
-        <v>0.129</v>
-      </c>
-      <c r="J3">
-        <v>55799.10111739467</v>
-      </c>
-      <c r="K3">
-        <v>77225955.94647422</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>22.15769805680119</v>
-      </c>
-      <c r="C4">
-        <v>4.369262179667699</v>
-      </c>
-      <c r="D4">
-        <v>1338</v>
-      </c>
-      <c r="E4">
-        <v>9370</v>
-      </c>
-      <c r="F4">
-        <v>29647</v>
-      </c>
-      <c r="G4">
-        <v>0.066</v>
-      </c>
-      <c r="H4">
-        <v>0.004</v>
-      </c>
-      <c r="I4">
-        <v>0.129</v>
-      </c>
-      <c r="J4">
-        <v>63123.29945813877</v>
-      </c>
-      <c r="K4">
-        <v>84458974.67498967</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>25.30498084291188</v>
-      </c>
-      <c r="C5">
-        <v>4.876030971216966</v>
-      </c>
-      <c r="D5">
-        <v>1305</v>
-      </c>
-      <c r="E5">
-        <v>10437</v>
-      </c>
-      <c r="F5">
-        <v>33023</v>
-      </c>
-      <c r="G5">
-        <v>0.066</v>
-      </c>
-      <c r="H5">
-        <v>0.004</v>
-      </c>
-      <c r="I5">
-        <v>0.129</v>
-      </c>
-      <c r="J5">
-        <v>70297.82573277554</v>
-      </c>
-      <c r="K5">
-        <v>91738662.58127208</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>28.4773082942097</v>
-      </c>
-      <c r="C6">
-        <v>5.378694158075601</v>
-      </c>
-      <c r="D6">
-        <v>1278</v>
-      </c>
-      <c r="E6">
-        <v>11502</v>
-      </c>
-      <c r="F6">
-        <v>36394</v>
-      </c>
-      <c r="G6">
-        <v>0.066</v>
-      </c>
-      <c r="H6">
-        <v>0.004</v>
-      </c>
-      <c r="I6">
-        <v>0.129</v>
-      </c>
-      <c r="J6">
-        <v>77412.85440651853</v>
-      </c>
-      <c r="K6">
-        <v>98933627.93153067</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>31.65605095541401</v>
-      </c>
-      <c r="C7">
-        <v>5.885437028762915</v>
-      </c>
-      <c r="D7">
-        <v>1256</v>
-      </c>
-      <c r="E7">
-        <v>12566</v>
-      </c>
-      <c r="F7">
-        <v>39760</v>
-      </c>
-      <c r="G7">
-        <v>0.066</v>
-      </c>
-      <c r="H7">
-        <v>0.004</v>
-      </c>
-      <c r="I7">
-        <v>0.129</v>
-      </c>
-      <c r="J7">
-        <v>84462.2239035087</v>
-      </c>
-      <c r="K7">
-        <v>106084553.2228069</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>34.80225988700565</v>
-      </c>
-      <c r="C8">
-        <v>6.388057540065651</v>
-      </c>
-      <c r="D8">
-        <v>1239</v>
-      </c>
-      <c r="E8">
-        <v>13628</v>
-      </c>
-      <c r="F8">
-        <v>43120</v>
-      </c>
-      <c r="G8">
-        <v>0.066</v>
-      </c>
-      <c r="H8">
-        <v>0.004</v>
-      </c>
-      <c r="I8">
-        <v>0.129</v>
-      </c>
-      <c r="J8">
-        <v>91457.71859132242</v>
-      </c>
-      <c r="K8">
-        <v>113316113.3346485</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>37.96977124183007</v>
-      </c>
-      <c r="C9">
-        <v>6.894787069068352</v>
-      </c>
-      <c r="D9">
-        <v>1224</v>
-      </c>
-      <c r="E9">
-        <v>14689</v>
-      </c>
-      <c r="F9">
-        <v>46475</v>
-      </c>
-      <c r="G9">
-        <v>0.066</v>
-      </c>
-      <c r="H9">
-        <v>0.004</v>
-      </c>
-      <c r="I9">
-        <v>0.129</v>
-      </c>
-      <c r="J9">
-        <v>98440.34608035177</v>
-      </c>
-      <c r="K9">
-        <v>120490983.6023506</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>41.10973597359736</v>
-      </c>
-      <c r="C10">
-        <v>7.397380276989821</v>
-      </c>
-      <c r="D10">
-        <v>1212</v>
-      </c>
-      <c r="E10">
-        <v>15747</v>
-      </c>
-      <c r="F10">
-        <v>49825</v>
-      </c>
-      <c r="G10">
-        <v>0.066</v>
-      </c>
-      <c r="H10">
-        <v>0.004</v>
-      </c>
-      <c r="I10">
-        <v>0.129</v>
-      </c>
-      <c r="J10">
-        <v>105381.6303746786</v>
-      </c>
-      <c r="K10">
-        <v>127722536.0141105</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>44.27060782681099</v>
-      </c>
-      <c r="C11">
-        <v>7.904102457309455</v>
-      </c>
-      <c r="D11">
-        <v>1201</v>
-      </c>
-      <c r="E11">
-        <v>16804</v>
-      </c>
-      <c r="F11">
-        <v>53169</v>
-      </c>
-      <c r="G11">
-        <v>0.066</v>
-      </c>
-      <c r="H11">
-        <v>0.004</v>
-      </c>
-      <c r="I11">
-        <v>0.129</v>
-      </c>
-      <c r="J11">
-        <v>112316.1996921329</v>
-      </c>
-      <c r="K11">
-        <v>134891755.8302516</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>47.44668345927792</v>
-      </c>
-      <c r="C12">
-        <v>8.404934403759544</v>
-      </c>
-      <c r="D12">
-        <v>1191</v>
-      </c>
-      <c r="E12">
-        <v>17860</v>
-      </c>
-      <c r="F12">
-        <v>56509</v>
-      </c>
-      <c r="G12">
-        <v>0.066</v>
-      </c>
-      <c r="H12">
-        <v>0.004</v>
-      </c>
-      <c r="I12">
-        <v>0.129</v>
-      </c>
-      <c r="J12">
-        <v>119233.8997523921</v>
-      </c>
-      <c r="K12">
-        <v>142007574.605099</v>
       </c>
     </row>
   </sheetData>
